--- a/Neuroscience.xlsx
+++ b/Neuroscience.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="720" yWindow="1545" windowWidth="27555" windowHeight="11160"/>
+    <workbookView xWindow="720" yWindow="1545" windowWidth="27555" windowHeight="11160" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="4" r:id="rId1"/>
@@ -222,10 +222,10 @@
           </c:marker>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$I$2:$I$50</c:f>
+              <c:f>Sheet1!$I$2:$I$53</c:f>
               <c:numCache>
                 <c:formatCode>0.000</c:formatCode>
-                <c:ptCount val="49"/>
+                <c:ptCount val="52"/>
                 <c:pt idx="0">
                   <c:v>43.857142862248502</c:v>
                 </c:pt>
@@ -371,6 +371,15 @@
                   <c:v>48.6083333309507</c:v>
                 </c:pt>
                 <c:pt idx="48">
+                  <c:v>48.6083333309507</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>48.6083333309507</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>48.6083333309507</c:v>
+                </c:pt>
+                <c:pt idx="51">
                   <c:v>48.6083333309507</c:v>
                 </c:pt>
               </c:numCache>
@@ -397,10 +406,10 @@
           </c:marker>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$J$2:$J$50</c:f>
+              <c:f>Sheet1!$J$2:$J$53</c:f>
               <c:numCache>
                 <c:formatCode>0.000</c:formatCode>
-                <c:ptCount val="49"/>
+                <c:ptCount val="52"/>
                 <c:pt idx="0">
                   <c:v>43.857142862248502</c:v>
                 </c:pt>
@@ -547,6 +556,15 @@
                 </c:pt>
                 <c:pt idx="48">
                   <c:v>48.101098130165262</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>48.076531957585473</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>47.665561710285338</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>47.843899628215759</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -563,11 +581,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="128372224"/>
-        <c:axId val="53448064"/>
+        <c:axId val="66356224"/>
+        <c:axId val="140236416"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="128372224"/>
+        <c:axId val="66356224"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -615,7 +633,7 @@
             <a:endParaRPr lang="fr-FR"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="53448064"/>
+        <c:crossAx val="140236416"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -623,7 +641,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="53448064"/>
+        <c:axId val="140236416"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -654,7 +672,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="128372224"/>
+        <c:crossAx val="66356224"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1002,7 +1020,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J83"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A22" workbookViewId="0">
+    <sheetView topLeftCell="A31" workbookViewId="0">
       <selection activeCell="C54" sqref="C54"/>
     </sheetView>
   </sheetViews>
@@ -3399,8 +3417,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A25:H40"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A41" sqref="A41"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="Z4" sqref="Z4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
